--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>shop_category</t>
   </si>
@@ -70,6 +70,42 @@
   </si>
   <si>
     <t>price_new</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>orders_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>product_count</t>
+  </si>
+  <si>
+    <t>product_sum</t>
   </si>
 </sst>
 </file>
@@ -103,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,13 +147,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,119 +486,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:F20"/>
+  <dimension ref="E4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="I12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>shop_category</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>product_sum</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>blog_category</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>blog_lang</t>
   </si>
 </sst>
 </file>
@@ -179,12 +197,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:J20"/>
+  <dimension ref="E4:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +518,11 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -513,8 +535,17 @@
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
@@ -527,8 +558,17 @@
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
@@ -541,8 +581,17 @@
       <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
@@ -555,8 +604,17 @@
       <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>4</v>
@@ -567,8 +625,15 @@
       <c r="J8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -579,8 +644,12 @@
       <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
@@ -593,8 +662,12 @@
       <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
@@ -602,8 +675,14 @@
         <v>6</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
@@ -613,8 +692,14 @@
       <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
@@ -624,18 +709,24 @@
       <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="N14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>shop_category</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>blog_lang</t>
+  </si>
+  <si>
+    <t>coments</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Blog_id</t>
+  </si>
+  <si>
+    <t>Shop_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
 </sst>
 </file>
@@ -506,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:O20"/>
+  <dimension ref="E4:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,9 +538,11 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="21.140625" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
@@ -544,8 +564,11 @@
       <c r="O4" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
@@ -567,8 +590,14 @@
       <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
@@ -590,8 +619,15 @@
       <c r="O6" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
@@ -613,8 +649,14 @@
       <c r="O7" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>4</v>
@@ -632,8 +674,11 @@
       <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -648,8 +693,11 @@
         <v>10</v>
       </c>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
@@ -666,8 +714,11 @@
         <v>11</v>
       </c>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
@@ -681,8 +732,11 @@
       <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
@@ -698,8 +752,9 @@
       <c r="N12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
@@ -712,21 +767,27 @@
       <c r="N13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:20" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>shop_category</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>star</t>
   </si>
   <si>
     <t>Blog_id</t>
@@ -148,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +163,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -215,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -223,6 +240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +613,8 @@
       <c r="R5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>39</v>
+      <c r="T5" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="5:20" x14ac:dyDescent="0.25">
@@ -619,12 +639,12 @@
       <c r="O6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
-        <v>40</v>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="5:20" x14ac:dyDescent="0.25">
@@ -649,11 +669,12 @@
       <c r="O7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T7" t="s">
-        <v>41</v>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="5:20" x14ac:dyDescent="0.25">
@@ -675,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="5:20" x14ac:dyDescent="0.25">
@@ -733,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="5:20" x14ac:dyDescent="0.25">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>shop_category</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>product_id</t>
+  </si>
+  <si>
+    <t>subtext</t>
+  </si>
+  <si>
+    <t>btn_name</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>hom_lang</t>
+  </si>
+  <si>
+    <t>imgrek1</t>
+  </si>
+  <si>
+    <t>imgrek2</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,6 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:T20"/>
+  <dimension ref="E4:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +860,85 @@
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>shop_category</t>
   </si>
@@ -159,9 +159,6 @@
     <t>imgrek2</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>support_time</t>
+  </si>
+  <si>
+    <t>contactus</t>
+  </si>
+  <si>
+    <t>contactus_lang</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
   <dimension ref="E4:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="6:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F33" s="10" t="s">
         <v>43</v>
       </c>
@@ -870,10 +876,13 @@
         <v>44</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>2</v>
       </c>
@@ -883,8 +892,11 @@
       <c r="I34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>15</v>
       </c>
@@ -892,10 +904,13 @@
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>45</v>
       </c>
@@ -905,8 +920,11 @@
       <c r="I36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>46</v>
       </c>
@@ -916,29 +934,32 @@
       <c r="I37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>30</v>
       </c>
       <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>41</v>
       </c>
-      <c r="I39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>42</v>
-      </c>
-      <c r="I40" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>shop_category</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>contactus_lang</t>
+  </si>
+  <si>
+    <t>jhbj</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:T40"/>
+  <dimension ref="E4:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,6 +963,11 @@
     <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
